--- a/BCS_WorkSheet.xlsx
+++ b/BCS_WorkSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniyal/Library/CloudStorage/OneDrive-UniversityofNewBrunswick/CS-XXXX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B3EE76-4977-8445-A211-6F1E2D3DBC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA646CE7-DA3B-6E45-A114-22F9C05DEAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="760" windowWidth="22380" windowHeight="17340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="760" windowWidth="39200" windowHeight="23960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>BCS Academic History Worksheet</t>
   </si>
@@ -557,6 +557,9 @@
       </rPr>
       <t>3765942</t>
     </r>
+  </si>
+  <si>
+    <t>Summer 2025</t>
   </si>
 </sst>
 </file>
@@ -1751,6 +1754,27 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1765,27 +1789,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2196,8 +2199,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2219,41 +2222,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:252" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="128" t="s">
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
     </row>
     <row r="2" spans="1:252" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
+      <c r="D2" s="136"/>
+      <c r="E2" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="130"/>
+      <c r="F2" s="137"/>
       <c r="G2" s="10">
         <v>43966</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:252" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2554,13 +2557,13 @@
       <c r="D5" s="132"/>
       <c r="E5" s="132"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="133" t="s">
+      <c r="G5" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
       <c r="L5" s="27"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
@@ -2816,13 +2819,13 @@
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="35"/>
-      <c r="G6" s="134" t="s">
+      <c r="G6" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
       <c r="L6" s="27"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
@@ -3392,8 +3395,12 @@
       <c r="B11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="47"/>
+      <c r="C11" s="37">
+        <v>4</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>80</v>
+      </c>
       <c r="E11" s="45"/>
       <c r="F11" s="46"/>
       <c r="G11" s="36" t="s">
@@ -3409,8 +3416,12 @@
       <c r="B12" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="47"/>
+      <c r="C12" s="37">
+        <v>4</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>80</v>
+      </c>
       <c r="E12" s="45"/>
       <c r="F12" s="46"/>
       <c r="G12" s="36" t="s">
@@ -3426,8 +3437,12 @@
       <c r="B13" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="47"/>
+      <c r="C13" s="37">
+        <v>4</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>80</v>
+      </c>
       <c r="E13" s="45"/>
       <c r="F13" s="46"/>
       <c r="G13" s="36" t="s">
@@ -3593,12 +3608,12 @@
       </c>
       <c r="E23" s="45"/>
       <c r="F23" s="46"/>
-      <c r="G23" s="136" t="s">
+      <c r="G23" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
       <c r="K23" s="61"/>
       <c r="L23" s="72"/>
     </row>
@@ -3617,7 +3632,7 @@
       <c r="H24" s="74"/>
       <c r="I24" s="75">
         <f>I27+I28+I30+I31+I33</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J24" s="76" t="s">
         <v>39</v>
@@ -3644,7 +3659,7 @@
       <c r="H25" s="79"/>
       <c r="I25" s="80">
         <f>SUM(C$6:C$39, H$7:H$20)</f>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J25" s="81" t="s">
         <v>41</v>
@@ -3654,12 +3669,12 @@
     </row>
     <row r="26" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="44"/>
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="133"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
       <c r="F26" s="46"/>
       <c r="G26" s="83"/>
       <c r="H26" s="84"/>
@@ -3670,12 +3685,12 @@
     </row>
     <row r="27" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="44"/>
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
       <c r="F27" s="46"/>
       <c r="G27" s="88" t="s">
         <v>44</v>
@@ -3683,7 +3698,7 @@
       <c r="H27" s="89"/>
       <c r="I27" s="90">
         <f>COUNT(C$6:C$19)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J27" s="91" t="s">
         <v>45</v>
@@ -3940,17 +3955,17 @@
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="44"/>
-      <c r="B41" s="138" t="s">
+      <c r="B41" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="138"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="131"/>
       <c r="K41" s="11"/>
       <c r="L41" s="8"/>
     </row>
@@ -4088,20 +4103,20 @@
       <c r="L50" s="8"/>
     </row>
     <row r="51" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="135" t="s">
+      <c r="B51" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="135"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
-      <c r="J51" s="135"/>
-      <c r="K51" s="135"/>
-      <c r="L51" s="135"/>
-      <c r="M51" s="135"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="127"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="127"/>
+      <c r="M51" s="127"/>
     </row>
     <row r="52" spans="2:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="118" t="s">
@@ -4118,20 +4133,20 @@
       <c r="K52" s="119"/>
     </row>
     <row r="53" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="135" t="s">
+      <c r="B53" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="135"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="135"/>
-      <c r="J53" s="135"/>
-      <c r="K53" s="135"/>
-      <c r="L53" s="135"/>
-      <c r="M53" s="135"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="127"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="127"/>
+      <c r="K53" s="127"/>
+      <c r="L53" s="127"/>
+      <c r="M53" s="127"/>
     </row>
     <row r="54" spans="2:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
@@ -4261,22 +4276,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B53:M53"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B41:J41"/>
     <mergeCell ref="B51:M51"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B45" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
